--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H2">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I2">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J2">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>60.6282761575</v>
+        <v>26.51207366230267</v>
       </c>
       <c r="R2">
-        <v>545.6544854175</v>
+        <v>238.608662960724</v>
       </c>
       <c r="S2">
-        <v>0.003521398395660388</v>
+        <v>0.00160882371031955</v>
       </c>
       <c r="T2">
-        <v>0.003521398395660388</v>
+        <v>0.00160882371031955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H3">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I3">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J3">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>288.7702543028453</v>
+        <v>215.3497792303807</v>
       </c>
       <c r="R3">
-        <v>2598.932288725608</v>
+        <v>1938.148013073426</v>
       </c>
       <c r="S3">
-        <v>0.01677229132451079</v>
+        <v>0.01306800196962887</v>
       </c>
       <c r="T3">
-        <v>0.01677229132451079</v>
+        <v>0.01306800196962887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H4">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I4">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J4">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>872.2629080375162</v>
+        <v>314.7060530489961</v>
       </c>
       <c r="R4">
-        <v>7850.366172337646</v>
+        <v>2832.354477440965</v>
       </c>
       <c r="S4">
-        <v>0.05066258517689036</v>
+        <v>0.0190972070451894</v>
       </c>
       <c r="T4">
-        <v>0.05066258517689035</v>
+        <v>0.01909720704518941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H5">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I5">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J5">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>456.5389257172067</v>
+        <v>265.3744483528834</v>
       </c>
       <c r="R5">
-        <v>4108.850331454861</v>
+        <v>2388.37003517595</v>
       </c>
       <c r="S5">
-        <v>0.02651659493667155</v>
+        <v>0.01610363301117987</v>
       </c>
       <c r="T5">
-        <v>0.02651659493667155</v>
+        <v>0.01610363301117987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H6">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I6">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J6">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>622.0391512077081</v>
+        <v>450.9075423806381</v>
       </c>
       <c r="R6">
-        <v>5598.352360869372</v>
+        <v>4058.167881425743</v>
       </c>
       <c r="S6">
-        <v>0.03612914316432869</v>
+        <v>0.0273622785823567</v>
       </c>
       <c r="T6">
-        <v>0.03612914316432869</v>
+        <v>0.02736227858235672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>393.844338</v>
       </c>
       <c r="I7">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J7">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>273.80386581375</v>
+        <v>160.552132242088</v>
       </c>
       <c r="R7">
-        <v>2464.23479232375</v>
+        <v>1444.969190178792</v>
       </c>
       <c r="S7">
-        <v>0.01590301679199036</v>
+        <v>0.009742733834536148</v>
       </c>
       <c r="T7">
-        <v>0.01590301679199036</v>
+        <v>0.009742733834536155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>393.844338</v>
       </c>
       <c r="I8">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J8">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>1304.117764370212</v>
@@ -948,10 +948,10 @@
         <v>11737.05987933191</v>
       </c>
       <c r="S8">
-        <v>0.07574548534541146</v>
+        <v>0.07913736236147334</v>
       </c>
       <c r="T8">
-        <v>0.07574548534541148</v>
+        <v>0.07913736236147338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>393.844338</v>
       </c>
       <c r="I9">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J9">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>3939.233825586366</v>
+        <v>1905.800673688968</v>
       </c>
       <c r="R9">
-        <v>35453.1044302773</v>
+        <v>17152.20606320071</v>
       </c>
       <c r="S9">
-        <v>0.2287977252976041</v>
+        <v>0.1156490944476155</v>
       </c>
       <c r="T9">
-        <v>0.2287977252976041</v>
+        <v>0.1156490944476156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>393.844338</v>
       </c>
       <c r="I10">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J10">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>2061.77926667579</v>
+        <v>1607.0577529439</v>
       </c>
       <c r="R10">
-        <v>18556.01340008211</v>
+        <v>14463.5197764951</v>
       </c>
       <c r="S10">
-        <v>0.1197518165124317</v>
+        <v>0.09752057306876256</v>
       </c>
       <c r="T10">
-        <v>0.1197518165124317</v>
+        <v>0.09752057306876261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>393.844338</v>
       </c>
       <c r="I11">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J11">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>2809.196221342758</v>
+        <v>2730.611279048604</v>
       </c>
       <c r="R11">
-        <v>25282.76599208482</v>
+        <v>24575.50151143744</v>
       </c>
       <c r="S11">
-        <v>0.1631631260838329</v>
+        <v>0.1657008133485184</v>
       </c>
       <c r="T11">
-        <v>0.1631631260838329</v>
+        <v>0.1657008133485185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H12">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I12">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J12">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>35.13313940562499</v>
+        <v>82.392014252596</v>
       </c>
       <c r="R12">
-        <v>316.198254650625</v>
+        <v>741.5281282733641</v>
       </c>
       <c r="S12">
-        <v>0.00204059538846341</v>
+        <v>0.004999768322877007</v>
       </c>
       <c r="T12">
-        <v>0.00204059538846341</v>
+        <v>0.004999768322877011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H13">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I13">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J13">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>167.3378536157607</v>
+        <v>669.2461067227539</v>
       </c>
       <c r="R13">
-        <v>1506.040682541846</v>
+        <v>6023.214960504786</v>
       </c>
       <c r="S13">
-        <v>0.009719280946154657</v>
+        <v>0.04061164804568135</v>
       </c>
       <c r="T13">
-        <v>0.009719280946154657</v>
+        <v>0.04061164804568137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H14">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I14">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J14">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>505.462736014917</v>
+        <v>978.0172587955561</v>
       </c>
       <c r="R14">
-        <v>4549.164624134253</v>
+        <v>8802.155329160005</v>
       </c>
       <c r="S14">
-        <v>0.0293581770830021</v>
+        <v>0.05934870938780279</v>
       </c>
       <c r="T14">
-        <v>0.0293581770830021</v>
+        <v>0.05934870938780282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H15">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I15">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J15">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>264.5571792219383</v>
+        <v>824.7086067075501</v>
       </c>
       <c r="R15">
-        <v>2381.014612997445</v>
+        <v>7422.377460367951</v>
       </c>
       <c r="S15">
-        <v>0.01536595274542251</v>
+        <v>0.05004552934922966</v>
       </c>
       <c r="T15">
-        <v>0.01536595274542251</v>
+        <v>0.05004552934922968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H16">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I16">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J16">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>360.461975833921</v>
+        <v>1401.292902684318</v>
       </c>
       <c r="R16">
-        <v>3244.157782505289</v>
+        <v>12611.63612415886</v>
       </c>
       <c r="S16">
-        <v>0.02093627435655073</v>
+        <v>0.08503421028686256</v>
       </c>
       <c r="T16">
-        <v>0.02093627435655072</v>
+        <v>0.08503421028686262</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H17">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I17">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J17">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>9.744206849999999</v>
+        <v>10.74235823390711</v>
       </c>
       <c r="R17">
-        <v>87.69786164999999</v>
+        <v>96.68122410516401</v>
       </c>
       <c r="S17">
-        <v>0.0005659609103751213</v>
+        <v>0.000651875098552934</v>
       </c>
       <c r="T17">
-        <v>0.0005659609103751213</v>
+        <v>0.0006518750985529344</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H18">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I18">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J18">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>46.41129961775999</v>
+        <v>87.25701744616511</v>
       </c>
       <c r="R18">
-        <v>417.7016965598399</v>
+        <v>785.3131570154859</v>
       </c>
       <c r="S18">
-        <v>0.002695651045560467</v>
+        <v>0.005294989760033896</v>
       </c>
       <c r="T18">
-        <v>0.002695651045560467</v>
+        <v>0.005294989760033899</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H19">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I19">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J19">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>140.19053059368</v>
+        <v>127.5149278510894</v>
       </c>
       <c r="R19">
-        <v>1261.71477534312</v>
+        <v>1147.634350659804</v>
       </c>
       <c r="S19">
-        <v>0.008142516014094102</v>
+        <v>0.007737947697324754</v>
       </c>
       <c r="T19">
-        <v>0.008142516014094102</v>
+        <v>0.007737947697324757</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H20">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I20">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J20">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>73.37516434919999</v>
+        <v>107.5263831356056</v>
       </c>
       <c r="R20">
-        <v>660.3764791427999</v>
+        <v>967.73744822045</v>
       </c>
       <c r="S20">
-        <v>0.004261760392945412</v>
+        <v>0.006524989213478274</v>
       </c>
       <c r="T20">
-        <v>0.004261760392945412</v>
+        <v>0.006524989213478277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H21">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I21">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J21">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>99.97444331784</v>
+        <v>182.7020553850847</v>
       </c>
       <c r="R21">
-        <v>899.7699898605599</v>
+        <v>1644.318498465762</v>
       </c>
       <c r="S21">
-        <v>0.005806693949073002</v>
+        <v>0.01108685055615187</v>
       </c>
       <c r="T21">
-        <v>0.005806693949073001</v>
+        <v>0.01108685055615188</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H22">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I22">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J22">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N22">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q22">
-        <v>74.488136501875</v>
+        <v>63.044466333736</v>
       </c>
       <c r="R22">
-        <v>670.3932285168751</v>
+        <v>567.400197003624</v>
       </c>
       <c r="S22">
-        <v>0.004326403800299815</v>
+        <v>0.003825707243201274</v>
       </c>
       <c r="T22">
-        <v>0.004326403800299815</v>
+        <v>0.003825707243201276</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H23">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I23">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J23">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P23">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q23">
-        <v>354.7842604713513</v>
+        <v>512.0916635793639</v>
       </c>
       <c r="R23">
-        <v>3193.058344242162</v>
+        <v>4608.824972214275</v>
       </c>
       <c r="S23">
-        <v>0.02060650252340755</v>
+        <v>0.03107509509506647</v>
       </c>
       <c r="T23">
-        <v>0.02060650252340755</v>
+        <v>0.03107509509506649</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H24">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I24">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J24">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N24">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O24">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P24">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q24">
-        <v>1071.665610129399</v>
+        <v>748.3562175930959</v>
       </c>
       <c r="R24">
-        <v>9644.990491164594</v>
+        <v>6735.205958337864</v>
       </c>
       <c r="S24">
-        <v>0.0622442497027395</v>
+        <v>0.04541226167233949</v>
       </c>
       <c r="T24">
-        <v>0.06224424970273949</v>
+        <v>0.04541226167233951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H25">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I25">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J25">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N25">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q25">
-        <v>560.9055043706016</v>
+        <v>631.0479779183</v>
       </c>
       <c r="R25">
-        <v>5048.149539335415</v>
+        <v>5679.4318012647</v>
       </c>
       <c r="S25">
-        <v>0.03257839193838566</v>
+        <v>0.03829368317830748</v>
       </c>
       <c r="T25">
-        <v>0.03257839193838566</v>
+        <v>0.0382936831783075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H26">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I26">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J26">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N26">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q26">
-        <v>764.239726762187</v>
+        <v>1072.236964084188</v>
       </c>
       <c r="R26">
-        <v>6878.157540859683</v>
+        <v>9650.132676757692</v>
       </c>
       <c r="S26">
-        <v>0.04438840617419379</v>
+        <v>0.06506621371350953</v>
       </c>
       <c r="T26">
-        <v>0.04438840617419378</v>
+        <v>0.06506621371350955</v>
       </c>
     </row>
   </sheetData>
